--- a/biology/Zoologie/Hypsirhynchus_funereus/Hypsirhynchus_funereus.xlsx
+++ b/biology/Zoologie/Hypsirhynchus_funereus/Hypsirhynchus_funereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsirhynchus funereus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsirhynchus funereus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Jamaïque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Jamaïque.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).</t>
         </is>
